--- a/dev/doc_tables.xlsx
+++ b/dev/doc_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czippel\Documents\GitHub\getcensus\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C111F799-77B9-4CDC-AD4D-F811A5A08AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345CC79F-1965-47AE-A0D0-0721DA5A7F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="15313" windowHeight="8700" activeTab="2" xr2:uid="{614A9CB4-755C-45CD-BCD3-7F2BDDFCA0D2}"/>
+    <workbookView xWindow="493" yWindow="653" windowWidth="16480" windowHeight="8554" activeTab="2" xr2:uid="{614A9CB4-755C-45CD-BCD3-7F2BDDFCA0D2}"/>
   </bookViews>
   <sheets>
     <sheet name="geographies" sheetId="1" r:id="rId1"/>
@@ -314,15 +314,9 @@
     <t>povratio</t>
   </si>
   <si>
-    <t>Population by ratio of income to poverty level</t>
-  </si>
-  <si>
     <t>povratio_char</t>
   </si>
   <si>
-    <t>Characteristics of the population at specified poverty levels</t>
-  </si>
-  <si>
     <t>medinc</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>medicaid</t>
   </si>
   <si>
-    <t>Medicaid participants, by age</t>
-  </si>
-  <si>
     <t>housing_overview</t>
   </si>
   <si>
@@ -350,9 +341,6 @@
     <t>Detailed homeowner housing cost burden</t>
   </si>
   <si>
-    <t>Median household income and poverty status of families, by housing tenure</t>
-  </si>
-  <si>
     <t>kids_nativity</t>
   </si>
   <si>
@@ -371,16 +359,28 @@
     <t>Detailed renter housing cost burden\*</t>
   </si>
   <si>
-    <t>Various housing-related estimates including occupancy, tenure, costs, and cost burden\*</t>
-  </si>
-  <si>
-    <t>SNAP participation overall and by poverty status, income, disability status, family composition, and family work effort</t>
-  </si>
-  <si>
-    <t>Number and percent of the population in poverty, overall and by various demographic characteristics</t>
-  </si>
-  <si>
     <t>tenure_inc</t>
+  </si>
+  <si>
+    <t>Characteristics of the population at various income-to-poverty ratios</t>
+  </si>
+  <si>
+    <t>Percent of households participating in SNAP and characteristics of participating households</t>
+  </si>
+  <si>
+    <t>Housing characteristics, including housing costs\*</t>
+  </si>
+  <si>
+    <t>Median household income and family poverty status, by housing tenure</t>
+  </si>
+  <si>
+    <t>Number and percent of population in poverty; overall, by age, and by race</t>
+  </si>
+  <si>
+    <t>Number and percent of population covered by Medicaid, overall and by age</t>
+  </si>
+  <si>
+    <t>Population by income-to-poverty ratio</t>
   </si>
 </sst>
 </file>
@@ -1193,14 +1193,18 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="21.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.1171875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
@@ -1211,7 +1215,7 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -1219,87 +1223,87 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
